--- a/docs/Unit&SeleniumTesztjegyzőkönyv.xlsx
+++ b/docs/Unit&SeleniumTesztjegyzőkönyv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petzd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBCD24C6-620E-423E-BFE0-7E970736FDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAD7EB5-483E-43C9-92D6-5D5DB6DB10B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5115" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF3C3A78-8F4B-489F-94C8-04E8CFFCAA2E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" activeTab="1" xr2:uid="{AF3C3A78-8F4B-489F-94C8-04E8CFFCAA2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Backend tesztek" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>1. Backend Unit Testek</t>
   </si>
@@ -856,13 +856,112 @@
   </si>
   <si>
     <t>Kocsis András Barnabás</t>
+  </si>
+  <si>
+    <t>TestLandingPageHeadlineVisible</t>
+  </si>
+  <si>
+    <t>TestVasarlasButtonNavigation</t>
+  </si>
+  <si>
+    <t>TestBlogButtonNavigation</t>
+  </si>
+  <si>
+    <t>TestFeatureBoxesAreVisible</t>
+  </si>
+  <si>
+    <t>Petz Dávid Bence</t>
+  </si>
+  <si>
+    <t>3. Frontend BlogPage Tesztek</t>
+  </si>
+  <si>
+    <t>TestBlogHeaderIsVisible</t>
+  </si>
+  <si>
+    <t>TestBlogSectionsExist</t>
+  </si>
+  <si>
+    <t>TestCommentFormSubmission</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frontend fut, elérhető URL </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>/blogPage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>/blogPage</t>
+    </r>
+  </si>
+  <si>
+    <t>A `h1` elem szövege `Üdvözlünk Webshopunkban!` és látható.</t>
+  </si>
+  <si>
+    <t>Az oldal URL-je tartalmazza a `/productList` útvonalat.</t>
+  </si>
+  <si>
+    <t>Az oldal URL-je tartalmazza a `/blogpage` útvonalat.</t>
+  </si>
+  <si>
+    <t>3db box jelenik meg.</t>
+  </si>
+  <si>
+    <t>A `h1` elem szövege `Blog` és látható.</t>
+  </si>
+  <si>
+    <t>Legalább 2 szekció jelenjen meg.</t>
+  </si>
+  <si>
+    <t>Név és üzenet megadása után a komment megjelenik az oldalon.</t>
+  </si>
+  <si>
+    <t>FE-INDEX-03</t>
+  </si>
+  <si>
+    <t>FE-INDEX-04</t>
+  </si>
+  <si>
+    <t>FE-INDEX-05</t>
+  </si>
+  <si>
+    <t>FE-INDEX-06</t>
+  </si>
+  <si>
+    <t>FE-BP-01</t>
+  </si>
+  <si>
+    <t>FE-BP-02</t>
+  </si>
+  <si>
+    <t>FE-BP-03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,6 +1004,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -941,7 +1047,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -957,7 +1063,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1279,7 +1385,7 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" customWidth="1"/>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
@@ -1292,12 +1398,12 @@
     <col min="9" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1326,7 +1432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1461,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="77.25" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1490,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="40.5">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1413,7 +1519,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="109.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -1442,7 +1548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="120" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1471,7 +1577,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -1500,7 +1606,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="58.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1635,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="70.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -1558,7 +1664,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="110.25" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1693,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="4"/>
     </row>
   </sheetData>
@@ -1597,31 +1703,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EB2ABF-D9ED-417E-92B0-32EA8886909D}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="2" width="49.85546875" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1650,7 +1756,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
@@ -1679,7 +1785,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="3" t="s">
         <v>55</v>
       </c>
@@ -1708,108 +1814,345 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
+      <c r="A6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45771</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45771</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45771</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45771</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24">
+      <c r="A12" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" ht="42.75">
+      <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H15" s="5">
         <v>45776</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:9" ht="42.75">
+      <c r="A16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H16" s="5">
         <v>45776</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I16" s="3" t="s">
         <v>72</v>
       </c>
     </row>
+    <row r="18" spans="1:9" ht="12" customHeight="1"/>
+    <row r="19" spans="1:9" ht="21" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="42.75">
+      <c r="A23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45777</v>
+      </c>
+      <c r="I23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="42.75">
+      <c r="A24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="5">
+        <v>45777</v>
+      </c>
+      <c r="I24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="42.75">
+      <c r="A25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="5">
+        <v>45777</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>